--- a/VersionRecords/Version 3.1.0 20160331/定时器/新增定时任务.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/定时器/新增定时任务.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>定时器大类</t>
   </si>
@@ -73,42 +73,78 @@
     <t>定时周期任务</t>
   </si>
   <si>
+    <t>每一小时提醒预定即将到期的租客签约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王起东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleReserveWillOverdueTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔一小时执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HandleReserveWillOverdueTask.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每一小时提醒预定即将到期的租客签约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王起东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandleReserveWillOverdueTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔一小时执行一次</t>
+    <t>SendSaleBillMessageTask.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天定时给当天即将逾期或三天后逾期的租客推送短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天定时给当天即将逾期或三天后逾期的租客推送短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendSaleBillMessageTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SendSaleBillMessageTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SendSaleBillMessageTask"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天上午9点执行一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,26 +520,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="29.375" customWidth="1"/>
+    <col min="11" max="11" width="49.625" customWidth="1"/>
     <col min="12" max="12" width="32.375" customWidth="1"/>
     <col min="13" max="13" width="60.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="77.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,17 +598,17 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -581,22 +618,64 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/VersionRecords/Version 3.1.0 20160331/定时器/新增定时任务.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/定时器/新增定时任务.xlsx
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,6 +678,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>5238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
